--- a/biology/Biochimie/Enzyme_d'activation_de_la_formiate_C-acétyltransférase/Enzyme_d'activation_de_la_formiate_C-acétyltransférase.xlsx
+++ b/biology/Biochimie/Enzyme_d'activation_de_la_formiate_C-acétyltransférase/Enzyme_d'activation_de_la_formiate_C-acétyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enzyme_d%27activation_de_la_formiate_C-ac%C3%A9tyltransf%C3%A9rase</t>
+          <t>Enzyme_d'activation_de_la_formiate_C-acétyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enzyme d'activation de la formiate C-acétyltransférase, également appelée enzyme d'activation de la pyruvate formiate lyase ([pyruvate formate lyase]-activating enzyme en anglais) ou PFL activase, est une oxydoréductase qui catalyse la réaction :
 S-adénosyl-L-méthionine + dihydroflavodoxine + [formiate C-acétyltransférase]–glycine  
         ⇌
     {\displaystyle \rightleftharpoons }
   5’-désoxyadénosine + L-méthionine + flavodoxine semiquinone + radical [formiate C-acétyltransférase]–glycin-2-yle.
-Cette enzyme est une protéine fer-soufre qui oxyde le résidu de glycine –NH–CH2–CO– en position 734[1] de la formiate C-acétyltransférase pour former son radical –NH–CH•–CO– à l'aide d'un cation de fer Fe2+ d'un cofacteur Fe-S, ce qui a pour effet d'activer la formiate C-acétyltransférase[2], cette enzyme possédant un mécanisme catalytique radicalaire[3].
+Cette enzyme est une protéine fer-soufre qui oxyde le résidu de glycine –NH–CH2–CO– en position 734 de la formiate C-acétyltransférase pour former son radical –NH–CH•–CO– à l'aide d'un cation de fer Fe2+ d'un cofacteur Fe-S, ce qui a pour effet d'activer la formiate C-acétyltransférase, cette enzyme possédant un mécanisme catalytique radicalaire.
 </t>
         </is>
       </c>
